--- a/Brasil/BRW/data_subset.xlsx
+++ b/Brasil/BRW/data_subset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,16 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>BRW_daily_original</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_day_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>BRW_daily</t>
         </is>
       </c>
@@ -454,6 +464,12 @@
       <c r="B2" t="n">
         <v>0.07358291731207484</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.07839317174023087</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07700473401966736</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +480,12 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +496,12 @@
       <c r="B4" t="n">
         <v>-0.03475856637962547</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.03343059776887457</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.03382247164746913</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +512,12 @@
       <c r="B5" t="n">
         <v>0.002961755093050538</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.005697063525994579</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.004908560602264995</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -494,6 +528,12 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +544,12 @@
       <c r="B7" t="n">
         <v>-0.08574491531691417</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.0912703685003993</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.08969240097547147</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -514,6 +560,12 @@
       <c r="B8" t="n">
         <v>0.00474057193177291</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.004913121807398931</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.004880403879957425</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,6 +576,12 @@
       <c r="B9" t="n">
         <v>0.00556207446349079</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.006323275245638884</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.006102322117079525</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,6 +592,12 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -544,6 +608,12 @@
       <c r="B11" t="n">
         <v>0.03235266593500987</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.03450685392423235</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03388615173044747</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +624,12 @@
       <c r="B12" t="n">
         <v>0.004639073101946924</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.008108169221612007</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.007091019386086508</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -564,6 +640,12 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -574,6 +656,12 @@
       <c r="B14" t="n">
         <v>0.0007287583690541857</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.0007653270518348305</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0007538773743750457</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -584,6 +672,12 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -594,6 +688,12 @@
       <c r="B16" t="n">
         <v>-0.01373801689948834</v>
       </c>
+      <c r="C16" t="n">
+        <v>-0.01444277646706074</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.01424593341890789</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -604,6 +704,12 @@
       <c r="B17" t="n">
         <v>-0.03261668178430811</v>
       </c>
+      <c r="C17" t="n">
+        <v>-0.03243937427545954</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.03251613783987219</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -614,6 +720,12 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -624,6 +736,12 @@
       <c r="B19" t="n">
         <v>-0.09473268889372848</v>
       </c>
+      <c r="C19" t="n">
+        <v>-0.08955407029601543</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.09107203267192114</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -634,6 +752,12 @@
       <c r="B20" t="n">
         <v>-0.04270189930680984</v>
       </c>
+      <c r="C20" t="n">
+        <v>-0.04094090219887921</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.04145128419006438</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -644,6 +768,12 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -654,6 +784,12 @@
       <c r="B22" t="n">
         <v>0.02738114505522232</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.02606724757524585</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02646324038617374</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -664,6 +800,12 @@
       <c r="B23" t="n">
         <v>0.002166334314235676</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.002002700778027</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.002050756859132793</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -674,6 +816,12 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -684,6 +832,12 @@
       <c r="B25" t="n">
         <v>-0.106790143451501</v>
       </c>
+      <c r="C25" t="n">
+        <v>-0.1130237261657979</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.1114441206726965</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -694,6 +848,12 @@
       <c r="B26" t="n">
         <v>0.03740809174676163</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.03250919074415864</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.03390595162214792</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -704,6 +864,12 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -714,6 +880,12 @@
       <c r="B28" t="n">
         <v>-0.02631321245655619</v>
       </c>
+      <c r="C28" t="n">
+        <v>-0.02224726244897347</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.02340563013721434</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -724,6 +896,12 @@
       <c r="B29" t="n">
         <v>0.04007168592735311</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.03631269049748395</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.03738818691338774</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -734,6 +912,12 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -744,6 +928,12 @@
       <c r="B31" t="n">
         <v>-0.01416240249472385</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.01066554837662221</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.01165234909649359</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -754,6 +944,12 @@
       <c r="B32" t="n">
         <v>0.1078095363662284</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.09847430204486339</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1011601418621604</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -764,6 +960,12 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -774,6 +976,12 @@
       <c r="B34" t="n">
         <v>-0.08893180624592115</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.08411303806918223</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.08552661681127621</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -784,6 +992,12 @@
       <c r="B35" t="n">
         <v>0.1816774547048655</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.2042725648981004</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1979746225696334</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -794,6 +1008,12 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -804,6 +1024,12 @@
       <c r="B37" t="n">
         <v>-0.01506839232108979</v>
       </c>
+      <c r="C37" t="n">
+        <v>-0.01335867031886927</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.01382580560884164</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -814,6 +1040,12 @@
       <c r="B38" t="n">
         <v>-0.06171110242613424</v>
       </c>
+      <c r="C38" t="n">
+        <v>-0.05797638546380668</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.05902283674198731</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +1056,12 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -834,6 +1072,12 @@
       <c r="B40" t="n">
         <v>-0.07633730628595933</v>
       </c>
+      <c r="C40" t="n">
+        <v>-0.07341742404531443</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.0742676283015225</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -844,6 +1088,12 @@
       <c r="B41" t="n">
         <v>-0.1694637114624968</v>
       </c>
+      <c r="C41" t="n">
+        <v>-0.1694934709731782</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.1695287947576607</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -854,6 +1104,12 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -864,6 +1120,12 @@
       <c r="B43" t="n">
         <v>-0.009433650835830655</v>
       </c>
+      <c r="C43" t="n">
+        <v>-0.0009498064132346833</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.003441338967597341</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -874,6 +1136,12 @@
       <c r="B44" t="n">
         <v>-0.009142002915794086</v>
       </c>
+      <c r="C44" t="n">
+        <v>-0.01386034223856746</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.012459190835153</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -884,6 +1152,12 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -894,6 +1168,12 @@
       <c r="B46" t="n">
         <v>-0.005877598251876948</v>
       </c>
+      <c r="C46" t="n">
+        <v>-0.006831834138069923</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.006556306263399049</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -904,6 +1184,12 @@
       <c r="B47" t="n">
         <v>-0.116451800845835</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.1101880503925327</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.1120264974260007</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -914,6 +1200,12 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -924,6 +1216,12 @@
       <c r="B49" t="n">
         <v>-0.03904811366377781</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.03638001031652857</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.03715333111554098</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -934,6 +1232,12 @@
       <c r="B50" t="n">
         <v>-0.006864370221446766</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.004631710461871898</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.005271547581434381</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -944,6 +1248,12 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -954,6 +1264,12 @@
       <c r="B52" t="n">
         <v>0.01617520340450005</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.02295144576472884</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02101825573697999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -964,6 +1280,12 @@
       <c r="B53" t="n">
         <v>0.08803074513875386</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.08125225022286328</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.08322663266635352</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -974,6 +1296,12 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -984,6 +1312,12 @@
       <c r="B55" t="n">
         <v>0.03135525180094612</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.03139636494155216</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0314036011087799</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -994,6 +1328,12 @@
       <c r="B56" t="n">
         <v>-0.005055862654315356</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.001694052665025787</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.002645469232983416</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1004,6 +1344,12 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1014,6 +1360,12 @@
       <c r="B58" t="n">
         <v>-0.04354156442242028</v>
       </c>
+      <c r="C58" t="n">
+        <v>-0.04119111138176158</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.04188079164838087</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1024,6 +1376,12 @@
       <c r="B59" t="n">
         <v>-0.05374403624343516</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.0505882853753581</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.05150766046762514</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1034,6 +1392,12 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1044,6 +1408,12 @@
       <c r="B61" t="n">
         <v>-0.01064988851418815</v>
       </c>
+      <c r="C61" t="n">
+        <v>-0.006934987296682757</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.007981384067676366</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1054,6 +1424,12 @@
       <c r="B62" t="n">
         <v>0.0038904847902666</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.004922201716408305</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.00463639675450611</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1064,6 +1440,12 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1074,6 +1456,12 @@
       <c r="B64" t="n">
         <v>-0.04188339449927638</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.03876765659493324</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.03967147379753127</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1084,6 +1472,12 @@
       <c r="B65" t="n">
         <v>-0.0170343802664079</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.01547703917907463</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.01593029741088927</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1094,6 +1488,12 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1104,6 +1504,12 @@
       <c r="B67" t="n">
         <v>0.01165799686044131</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.01092935041245534</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01114110705596021</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1114,6 +1520,12 @@
       <c r="B68" t="n">
         <v>0.01118790010016634</v>
       </c>
+      <c r="C68" t="n">
+        <v>0.01319512445667228</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01261216744711668</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1124,6 +1536,12 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1134,6 +1552,12 @@
       <c r="B70" t="n">
         <v>-0.1375629758471879</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.1294757446611876</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.1318357570203095</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1144,6 +1568,12 @@
       <c r="B71" t="n">
         <v>-0.04686169528482007</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.04476122996714517</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.04538332475474068</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1154,6 +1584,12 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1164,6 +1600,12 @@
       <c r="B73" t="n">
         <v>0.05672986331846121</v>
       </c>
+      <c r="C73" t="n">
+        <v>0.05552924879508815</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.05590451441499369</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1174,6 +1616,12 @@
       <c r="B74" t="n">
         <v>-0.08235300978869725</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.07837372063250352</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.07954792254803063</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1184,6 +1632,12 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1194,6 +1648,12 @@
       <c r="B76" t="n">
         <v>-0.06776185846867072</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.06414295103328892</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.06520456809831314</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1204,6 +1664,12 @@
       <c r="B77" t="n">
         <v>-0.09876069915487143</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.09305664145348401</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.09472620451593564</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1214,6 +1680,12 @@
       <c r="B78" t="n">
         <v>-0.1378466216075541</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.1330248619117072</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.134449489165387</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1224,6 +1696,12 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1234,6 +1712,12 @@
       <c r="B80" t="n">
         <v>0.01991596895821013</v>
       </c>
+      <c r="C80" t="n">
+        <v>0.02097019386951241</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.02068380044791176</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1244,6 +1728,12 @@
       <c r="B81" t="n">
         <v>0.09946931622917993</v>
       </c>
+      <c r="C81" t="n">
+        <v>0.09569530327798866</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.09680686355552556</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1254,6 +1744,12 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1264,6 +1760,12 @@
       <c r="B83" t="n">
         <v>0.03511749640667153</v>
       </c>
+      <c r="C83" t="n">
+        <v>0.0315127287071596</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.03257200315854539</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1274,6 +1776,12 @@
       <c r="B84" t="n">
         <v>0.01825960036778516</v>
       </c>
+      <c r="C84" t="n">
+        <v>0.01898869197808975</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01877846676809758</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1284,6 +1792,12 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1294,6 +1808,12 @@
       <c r="B86" t="n">
         <v>-0.05582877559344609</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.05463432552570844</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.05500176049687494</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1304,6 +1824,12 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1314,6 +1840,12 @@
       <c r="B88" t="n">
         <v>0.03770115740067898</v>
       </c>
+      <c r="C88" t="n">
+        <v>0.03792531339330833</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.03790125468608346</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1324,6 +1856,12 @@
       <c r="B89" t="n">
         <v>-0.3551438592709044</v>
       </c>
+      <c r="C89" t="n">
+        <v>-0.3549505562250831</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.3552503765247156</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1334,6 +1872,12 @@
       <c r="B90" t="n">
         <v>0.1416984500382909</v>
       </c>
+      <c r="C90" t="n">
+        <v>0.1417278990668367</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1417998205554805</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1344,6 +1888,12 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1354,6 +1904,12 @@
       <c r="B92" t="n">
         <v>0.06637939592805418</v>
       </c>
+      <c r="C92" t="n">
+        <v>0.06520326850620103</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.06556480009081922</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1364,6 +1920,12 @@
       <c r="B93" t="n">
         <v>-0.01559326171758842</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.01120592017515336</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.01247312349943482</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1374,6 +1936,12 @@
       <c r="B94" t="n">
         <v>0</v>
       </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1384,6 +1952,12 @@
       <c r="B95" t="n">
         <v>0.08097925977958807</v>
       </c>
+      <c r="C95" t="n">
+        <v>0.07622306615506401</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.07761982600425488</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1394,6 +1968,12 @@
       <c r="B96" t="n">
         <v>-0.1517741751869105</v>
       </c>
+      <c r="C96" t="n">
+        <v>-0.1476010201665665</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.148845685049798</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1404,6 +1984,12 @@
       <c r="B97" t="n">
         <v>0</v>
       </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1414,6 +2000,12 @@
       <c r="B98" t="n">
         <v>0.1026365923405973</v>
       </c>
+      <c r="C98" t="n">
+        <v>0.09825636562250489</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.09953745050863758</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1424,6 +2016,12 @@
       <c r="B99" t="n">
         <v>-0.03945004842534908</v>
       </c>
+      <c r="C99" t="n">
+        <v>-0.04640780939404787</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.04453199612325775</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1434,6 +2032,12 @@
       <c r="B100" t="n">
         <v>0</v>
       </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1444,6 +2048,12 @@
       <c r="B101" t="n">
         <v>0.003565236023443436</v>
       </c>
+      <c r="C101" t="n">
+        <v>0.00919840130482257</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.007693843397419636</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1454,6 +2064,12 @@
       <c r="B102" t="n">
         <v>0.1058815571692738</v>
       </c>
+      <c r="C102" t="n">
+        <v>0.1029959578206746</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1038501904697409</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1464,6 +2080,12 @@
       <c r="B103" t="n">
         <v>0</v>
       </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1474,6 +2096,12 @@
       <c r="B104" t="n">
         <v>0.05814045931861499</v>
       </c>
+      <c r="C104" t="n">
+        <v>0.0655535228076651</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.06355434068447188</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1484,6 +2112,12 @@
       <c r="B105" t="n">
         <v>0</v>
       </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1494,6 +2128,12 @@
       <c r="B106" t="n">
         <v>0.05053566884334759</v>
       </c>
+      <c r="C106" t="n">
+        <v>0.05162200359070367</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.05131744353761176</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1504,6 +2144,12 @@
       <c r="B107" t="n">
         <v>0.3106292003208205</v>
       </c>
+      <c r="C107" t="n">
+        <v>0.3025500982189862</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.3049391320230183</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1514,6 +2160,12 @@
       <c r="B108" t="n">
         <v>0</v>
       </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1524,6 +2176,12 @@
       <c r="B109" t="n">
         <v>-0.1590621258431279</v>
       </c>
+      <c r="C109" t="n">
+        <v>-0.1521893433819075</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.1542275314050083</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1534,6 +2192,12 @@
       <c r="B110" t="n">
         <v>0.006459265843820452</v>
       </c>
+      <c r="C110" t="n">
+        <v>0.006291718677881798</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.006340539891999785</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1544,6 +2208,12 @@
       <c r="B111" t="n">
         <v>0</v>
       </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1554,6 +2224,12 @@
       <c r="B112" t="n">
         <v>0.00331708945373184</v>
       </c>
+      <c r="C112" t="n">
+        <v>0.004260138006761795</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.003997595565640973</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1564,6 +2240,12 @@
       <c r="B113" t="n">
         <v>0.1657980718055033</v>
       </c>
+      <c r="C113" t="n">
+        <v>0.1698341971160161</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.168819152855076</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1574,6 +2256,12 @@
       <c r="B114" t="n">
         <v>0</v>
       </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1584,6 +2272,12 @@
       <c r="B115" t="n">
         <v>-0.03602179910895369</v>
       </c>
+      <c r="C115" t="n">
+        <v>-0.03731613909041551</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.03694702536948696</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1594,6 +2288,12 @@
       <c r="B116" t="n">
         <v>-0.1088636004393021</v>
       </c>
+      <c r="C116" t="n">
+        <v>-0.107063516852127</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.1076488052837337</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1604,6 +2304,12 @@
       <c r="B117" t="n">
         <v>0</v>
       </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1614,6 +2320,12 @@
       <c r="B118" t="n">
         <v>-0.06781233108372771</v>
       </c>
+      <c r="C118" t="n">
+        <v>-0.06662183317075752</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.06698067103590616</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1624,6 +2336,12 @@
       <c r="B119" t="n">
         <v>0.035906877454482</v>
       </c>
+      <c r="C119" t="n">
+        <v>0.04611941099439693</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.04323857814762238</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1634,6 +2352,12 @@
       <c r="B120" t="n">
         <v>-0.01873932000465435</v>
       </c>
+      <c r="C120" t="n">
+        <v>-0.02618985388236543</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.02409636499991823</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1644,6 +2368,12 @@
       <c r="B121" t="n">
         <v>0</v>
       </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1654,6 +2384,12 @@
       <c r="B122" t="n">
         <v>-0.2447980814204463</v>
       </c>
+      <c r="C122" t="n">
+        <v>-0.2383834917584331</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.2403061743092235</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1664,6 +2400,12 @@
       <c r="B123" t="n">
         <v>0</v>
       </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1674,6 +2416,12 @@
       <c r="B124" t="n">
         <v>-0.005608747377608464</v>
       </c>
+      <c r="C124" t="n">
+        <v>-0.02162186052028604</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.01737738186110625</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1684,6 +2432,12 @@
       <c r="B125" t="n">
         <v>-0.03775810691039619</v>
       </c>
+      <c r="C125" t="n">
+        <v>-0.03612174022517493</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.03660064860204094</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1694,6 +2448,12 @@
       <c r="B126" t="n">
         <v>0</v>
       </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1704,6 +2464,12 @@
       <c r="B127" t="n">
         <v>0.03007961972377751</v>
       </c>
+      <c r="C127" t="n">
+        <v>0.02870949447777804</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02911006717347055</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1714,6 +2480,12 @@
       <c r="B128" t="n">
         <v>0.05280713474432489</v>
       </c>
+      <c r="C128" t="n">
+        <v>0.04964736390423909</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.05059169983913803</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1724,6 +2496,12 @@
       <c r="B129" t="n">
         <v>0</v>
       </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1734,6 +2512,12 @@
       <c r="B130" t="n">
         <v>-0.08960375584710148</v>
       </c>
+      <c r="C130" t="n">
+        <v>-0.08737437134379523</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.08805836506602226</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1744,6 +2528,12 @@
       <c r="B131" t="n">
         <v>0.1411433863131964</v>
       </c>
+      <c r="C131" t="n">
+        <v>0.1353591639773709</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1370515188088574</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1754,6 +2544,12 @@
       <c r="B132" t="n">
         <v>0</v>
       </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1764,6 +2560,12 @@
       <c r="B133" t="n">
         <v>-0.1010067390800326</v>
       </c>
+      <c r="C133" t="n">
+        <v>-0.09353971786394873</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.09569820065733683</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1774,6 +2576,12 @@
       <c r="B134" t="n">
         <v>-0.07123737019441592</v>
       </c>
+      <c r="C134" t="n">
+        <v>-0.07031392654630271</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.07061508870033135</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1784,6 +2592,12 @@
       <c r="B135" t="n">
         <v>-0.01764715842780024</v>
       </c>
+      <c r="C135" t="n">
+        <v>-0.01751896590102768</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.01757029736867189</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1794,6 +2608,12 @@
       <c r="B136" t="n">
         <v>0</v>
       </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1804,6 +2624,12 @@
       <c r="B137" t="n">
         <v>-0.02293508977291984</v>
       </c>
+      <c r="C137" t="n">
+        <v>-0.02155849644848915</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.02195831976627274</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1814,6 +2640,12 @@
       <c r="B138" t="n">
         <v>0</v>
       </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1824,6 +2656,12 @@
       <c r="B139" t="n">
         <v>0.1056653556309226</v>
       </c>
+      <c r="C139" t="n">
+        <v>0.1053157807428375</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1054417919958977</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1834,6 +2672,12 @@
       <c r="B140" t="n">
         <v>-0.04000841353148151</v>
       </c>
+      <c r="C140" t="n">
+        <v>-0.03577746828937527</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.03702336815143896</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1844,6 +2688,12 @@
       <c r="B141" t="n">
         <v>0</v>
       </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1854,6 +2704,12 @@
       <c r="B142" t="n">
         <v>0.0415303720797444</v>
       </c>
+      <c r="C142" t="n">
+        <v>0.04089155285592267</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0410830300276744</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1864,6 +2720,12 @@
       <c r="B143" t="n">
         <v>0.04095806200185786</v>
       </c>
+      <c r="C143" t="n">
+        <v>0.04432992419204407</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.0433669417118935</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1874,6 +2736,12 @@
       <c r="B144" t="n">
         <v>0</v>
       </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1884,6 +2752,12 @@
       <c r="B145" t="n">
         <v>-0.02709126136196304</v>
       </c>
+      <c r="C145" t="n">
+        <v>-0.02513778323144171</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.02570519804384117</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1894,6 +2768,12 @@
       <c r="B146" t="n">
         <v>0</v>
       </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1904,6 +2784,12 @@
       <c r="B147" t="n">
         <v>-0.07146842268566013</v>
       </c>
+      <c r="C147" t="n">
+        <v>-0.06896453594053086</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.06971367405963706</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1914,6 +2800,12 @@
       <c r="B148" t="n">
         <v>-0.08649403588172076</v>
       </c>
+      <c r="C148" t="n">
+        <v>-0.08138235956187988</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.08282478118088982</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1924,6 +2816,12 @@
       <c r="B149" t="n">
         <v>0</v>
       </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -1934,6 +2832,12 @@
       <c r="B150" t="n">
         <v>0.05066721430877173</v>
       </c>
+      <c r="C150" t="n">
+        <v>0.04320149768011887</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.04536327276655461</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1944,6 +2848,12 @@
       <c r="B151" t="n">
         <v>0.09514068877626819</v>
       </c>
+      <c r="C151" t="n">
+        <v>0.1058308487617258</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1027992752205603</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1954,6 +2864,12 @@
       <c r="B152" t="n">
         <v>0</v>
       </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -1964,6 +2880,12 @@
       <c r="B153" t="n">
         <v>-0.06925128461822076</v>
       </c>
+      <c r="C153" t="n">
+        <v>-0.0714156613220364</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.07080232891428945</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1974,6 +2896,12 @@
       <c r="B154" t="n">
         <v>0.08311312751500619</v>
       </c>
+      <c r="C154" t="n">
+        <v>0.08167227013122218</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.08209462780080774</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -1984,6 +2912,12 @@
       <c r="B155" t="n">
         <v>0</v>
       </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1994,6 +2928,12 @@
       <c r="B156" t="n">
         <v>0.09084325008480709</v>
       </c>
+      <c r="C156" t="n">
+        <v>0.08904550697679726</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.08958121473753516</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2004,6 +2944,12 @@
       <c r="B157" t="n">
         <v>0.05253608019249115</v>
       </c>
+      <c r="C157" t="n">
+        <v>0.05049427848516901</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.05108910311387121</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2014,6 +2960,12 @@
       <c r="B158" t="n">
         <v>0</v>
       </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2024,6 +2976,12 @@
       <c r="B159" t="n">
         <v>0.009015303099416519</v>
       </c>
+      <c r="C159" t="n">
+        <v>0.007221402657262896</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.007761641489443435</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2034,6 +2992,12 @@
       <c r="B160" t="n">
         <v>0.01831272341113243</v>
       </c>
+      <c r="C160" t="n">
+        <v>0.02114682763148833</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.02031501695160725</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2044,6 +3008,12 @@
       <c r="B161" t="n">
         <v>0</v>
       </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2054,6 +3024,12 @@
       <c r="B162" t="n">
         <v>-0.0143200288679343</v>
       </c>
+      <c r="C162" t="n">
+        <v>-0.01390657923329336</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.01403395611853238</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2064,6 +3040,12 @@
       <c r="B163" t="n">
         <v>-0.1009546536310092</v>
       </c>
+      <c r="C163" t="n">
+        <v>-0.1059079852543077</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.1044944175792812</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2074,6 +3056,12 @@
       <c r="B164" t="n">
         <v>0</v>
       </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2084,6 +3072,12 @@
       <c r="B165" t="n">
         <v>-0.02853430395923182</v>
       </c>
+      <c r="C165" t="n">
+        <v>-0.02527933545317191</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.0262316370284955</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2094,6 +3088,12 @@
       <c r="B166" t="n">
         <v>-0.01543012048560433</v>
       </c>
+      <c r="C166" t="n">
+        <v>-0.00877975906900743</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.01068472597158492</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2104,6 +3104,12 @@
       <c r="B167" t="n">
         <v>0.08763649189112996</v>
       </c>
+      <c r="C167" t="n">
+        <v>0.08353080917774434</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.08473704362575359</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2114,6 +3120,12 @@
       <c r="B168" t="n">
         <v>0</v>
       </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2124,6 +3136,12 @@
       <c r="B169" t="n">
         <v>0.01017121442206742</v>
       </c>
+      <c r="C169" t="n">
+        <v>0.01200927022765468</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0114750685663654</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2134,6 +3152,12 @@
       <c r="B170" t="n">
         <v>0</v>
       </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2144,6 +3168,12 @@
       <c r="B171" t="n">
         <v>0.04184233505540199</v>
       </c>
+      <c r="C171" t="n">
+        <v>0.04279902724979957</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.04253623307858142</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2154,6 +3184,12 @@
       <c r="B172" t="n">
         <v>-0.04284618219136786</v>
       </c>
+      <c r="C172" t="n">
+        <v>-0.04251407743802925</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.04260541548254227</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2164,6 +3200,12 @@
       <c r="B173" t="n">
         <v>0</v>
       </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2174,6 +3216,12 @@
       <c r="B174" t="n">
         <v>-0.2342376121548596</v>
       </c>
+      <c r="C174" t="n">
+        <v>-0.2228967422275983</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.2261565505069829</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2184,6 +3232,12 @@
       <c r="B175" t="n">
         <v>-0.06932812430456511</v>
       </c>
+      <c r="C175" t="n">
+        <v>-0.06393816342616465</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.06550947048269959</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2194,6 +3248,12 @@
       <c r="B176" t="n">
         <v>0</v>
       </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2204,6 +3264,12 @@
       <c r="B177" t="n">
         <v>-0.08152862332789008</v>
       </c>
+      <c r="C177" t="n">
+        <v>-0.07978187068915379</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.08031020284871659</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2214,6 +3280,12 @@
       <c r="B178" t="n">
         <v>0.01231467756705814</v>
       </c>
+      <c r="C178" t="n">
+        <v>0.01106645551951191</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.01142503572644631</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2224,6 +3296,12 @@
       <c r="B179" t="n">
         <v>-0.0459353195952809</v>
       </c>
+      <c r="C179" t="n">
+        <v>-0.04374704918909479</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.04438352346176533</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2234,6 +3312,12 @@
       <c r="B180" t="n">
         <v>0</v>
       </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2244,6 +3328,12 @@
       <c r="B181" t="n">
         <v>0.0587101138068136</v>
       </c>
+      <c r="C181" t="n">
+        <v>0.05300825972593109</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0546480726304591</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2254,6 +3344,12 @@
       <c r="B182" t="n">
         <v>-0.1854251898418988</v>
       </c>
+      <c r="C182" t="n">
+        <v>-0.1917711638496005</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.1900603666261529</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2264,6 +3360,12 @@
       <c r="B183" t="n">
         <v>0</v>
       </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2274,6 +3376,12 @@
       <c r="B184" t="n">
         <v>0.3403791311500786</v>
       </c>
+      <c r="C184" t="n">
+        <v>0.3392573344404093</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.3398578036313004</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2284,6 +3392,12 @@
       <c r="B185" t="n">
         <v>0</v>
       </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2294,6 +3408,12 @@
       <c r="B186" t="n">
         <v>0.01563641437834208</v>
       </c>
+      <c r="C186" t="n">
+        <v>0.01804334776726002</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.01735547321429955</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2304,6 +3424,12 @@
       <c r="B187" t="n">
         <v>0.1106851286305394</v>
       </c>
+      <c r="C187" t="n">
+        <v>0.1130344629578332</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1123847333046842</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2314,6 +3440,12 @@
       <c r="B188" t="n">
         <v>0</v>
       </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2324,6 +3456,12 @@
       <c r="B189" t="n">
         <v>-0.0278936800579787</v>
       </c>
+      <c r="C189" t="n">
+        <v>-0.02785058229400547</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.02786557018536153</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2334,6 +3472,12 @@
       <c r="B190" t="n">
         <v>-0.07849707636769995</v>
       </c>
+      <c r="C190" t="n">
+        <v>-0.07701635840399911</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.07745624649773741</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2344,6 +3488,12 @@
       <c r="B191" t="n">
         <v>0.3290377853416013</v>
       </c>
+      <c r="C191" t="n">
+        <v>0.3232565298098616</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3250010768802952</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2354,6 +3504,12 @@
       <c r="B192" t="n">
         <v>0</v>
       </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2364,6 +3520,12 @@
       <c r="B193" t="n">
         <v>0.1493050084063051</v>
       </c>
+      <c r="C193" t="n">
+        <v>0.140545582821748</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1431277860421048</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2374,6 +3536,12 @@
       <c r="B194" t="n">
         <v>0</v>
       </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2384,6 +3552,12 @@
       <c r="B195" t="n">
         <v>-0.1832926789554505</v>
       </c>
+      <c r="C195" t="n">
+        <v>-0.1789663147856042</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.1802405496539254</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2394,6 +3568,12 @@
       <c r="B196" t="n">
         <v>-0.07253516679756075</v>
       </c>
+      <c r="C196" t="n">
+        <v>-0.06941334885809633</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.07036876587681969</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2404,6 +3584,12 @@
       <c r="B197" t="n">
         <v>0</v>
       </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2414,6 +3600,12 @@
       <c r="B198" t="n">
         <v>0.03347262395225399</v>
       </c>
+      <c r="C198" t="n">
+        <v>0.03487017062207211</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.03447652421979106</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2424,6 +3616,12 @@
       <c r="B199" t="n">
         <v>-0.07326848836632742</v>
       </c>
+      <c r="C199" t="n">
+        <v>-0.07536157647241318</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.07479144239230454</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2434,6 +3632,12 @@
       <c r="B200" t="n">
         <v>0</v>
       </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2444,6 +3648,12 @@
       <c r="B201" t="n">
         <v>-0.07813407312891345</v>
       </c>
+      <c r="C201" t="n">
+        <v>-0.08280005314890512</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.08148666118214434</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2454,6 +3664,12 @@
       <c r="B202" t="n">
         <v>-0.04697713265992841</v>
       </c>
+      <c r="C202" t="n">
+        <v>-0.04459635323851877</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.04532918971388542</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2464,6 +3680,12 @@
       <c r="B203" t="n">
         <v>0.05248257472611313</v>
       </c>
+      <c r="C203" t="n">
+        <v>0.04905723472209253</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.05005005111291098</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2474,6 +3696,12 @@
       <c r="B204" t="n">
         <v>0</v>
       </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2484,6 +3712,12 @@
       <c r="B205" t="n">
         <v>-0.07062304948554518</v>
       </c>
+      <c r="C205" t="n">
+        <v>-0.06840886934546847</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.06904192035186275</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2494,6 +3728,12 @@
       <c r="B206" t="n">
         <v>0</v>
       </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2504,6 +3744,12 @@
       <c r="B207" t="n">
         <v>0.1029425955993424</v>
       </c>
+      <c r="C207" t="n">
+        <v>0.09790664934437077</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.09940695173856934</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2514,6 +3760,12 @@
       <c r="B208" t="n">
         <v>-0.02125077631904891</v>
       </c>
+      <c r="C208" t="n">
+        <v>-0.02338407243109158</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.02278035037787815</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2524,6 +3776,12 @@
       <c r="B209" t="n">
         <v>0</v>
       </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2534,6 +3792,12 @@
       <c r="B210" t="n">
         <v>-0.04666020064766001</v>
       </c>
+      <c r="C210" t="n">
+        <v>-0.04823286438502097</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.04780814306882985</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2542,6 +3806,12 @@
         </is>
       </c>
       <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Brasil/BRW/data_subset.xlsx
+++ b/Brasil/BRW/data_subset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>BRW_daily_original</t>
+          <t>BRW_daily</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>BRW_daily_day_2</t>
+          <t>BRW_daily_iv2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>BRW_daily</t>
+          <t>BRW_daily_iv7</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_iv1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_R5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_R10</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_day2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_b3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BRW_daily_BBG</t>
         </is>
       </c>
     </row>
@@ -470,6 +500,24 @@
       <c r="D2" t="n">
         <v>0.07700473401966736</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.07141436296175303</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04012717961519505</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.004032048307617207</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05896191402266093</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.06373304159039796</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +534,24 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +568,24 @@
       <c r="D4" t="n">
         <v>-0.03382247164746913</v>
       </c>
+      <c r="E4" t="n">
+        <v>-0.03311421371544369</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.03786697719648881</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.03846769110590213</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.02212573285997659</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.00617320102501657</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +602,24 @@
       <c r="D5" t="n">
         <v>0.004908560602264995</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.001509424689160365</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01263863178034133</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.02149141502864131</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.2463978923596314</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04435152318555021</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +636,24 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +670,24 @@
       <c r="D7" t="n">
         <v>-0.08969240097547147</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.08353477704845036</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.04875069636921597</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.003157524701264993</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.04477913324554858</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04550480220629477</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +704,24 @@
       <c r="D8" t="n">
         <v>0.004880403879957425</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.00298234632716975</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003417248441005564</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.008647041475242508</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03654308425523799</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.009588375097937165</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +738,24 @@
       <c r="D9" t="n">
         <v>0.006102322117079525</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.004847747978334418</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.222787733516667e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.002577112376715522</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01633661332861906</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01488199532588025</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +772,24 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +806,24 @@
       <c r="D11" t="n">
         <v>0.03388615173044747</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.03262451724786204</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01850303862610415</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.006353019174147322</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.01089541784071503</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.01813909431587222</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +840,24 @@
       <c r="D12" t="n">
         <v>0.007091019386086508</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.003961965647785548</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.01592045095918452</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.03264542310155565</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.001718678496101275</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.005728070963232485</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +874,24 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +908,24 @@
       <c r="D14" t="n">
         <v>0.0007538773743750457</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.0007471269400875384</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0004358134713616182</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.0001515256419507724</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02229191126355907</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +942,24 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +976,24 @@
       <c r="D16" t="n">
         <v>-0.01424593341890789</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.01222068375140622</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.007976637981012493</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.005883669985792503</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.00715550565429209</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01504168404836869</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +1010,24 @@
       <c r="D17" t="n">
         <v>-0.03251613783987219</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.02954899621458834</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.03064195556344744</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.03219577661978855</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.02474944484124876</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.0287502510687591</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.02600633283032012</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1044,24 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +1078,24 @@
       <c r="D19" t="n">
         <v>-0.09107203267192114</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.09124461051914202</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1129219979147222</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.117472618845923</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.05203521633140391</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.1207081612414323</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.07563886252733555</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +1112,24 @@
       <c r="D20" t="n">
         <v>-0.04145128419006438</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.04122560079028753</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.04680031870471208</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.04584919549148148</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.02800910726623047</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.03296935078543129</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.02810977345399232</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +1146,24 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +1180,24 @@
       <c r="D22" t="n">
         <v>0.02646324038617374</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.02574318512311306</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03216099619587984</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03525836291818544</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.01150519459942764</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02880659659001494</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01710208508690744</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +1214,24 @@
       <c r="D23" t="n">
         <v>0.002050756859132793</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.002679000913305051</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.003156099937213499</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001163146077122269</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.02244365052961894</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.005933502863331813</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.00108082796259872</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +1248,24 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +1282,24 @@
       <c r="D25" t="n">
         <v>-0.1114441206726965</v>
       </c>
+      <c r="E25" t="n">
+        <v>-0.117467171125411</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.09151182502005545</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01857959414715024</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1349173163245362</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.008374953108005765</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.065037177496115</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1316,24 @@
       <c r="D26" t="n">
         <v>0.03390595162214792</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.03893516821037783</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05920520732711266</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.06300927487103053</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02236992383919026</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05359529803070639</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02916812839945632</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1350,24 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1384,24 @@
       <c r="D28" t="n">
         <v>-0.02340563013721434</v>
       </c>
+      <c r="E28" t="n">
+        <v>-0.02790452332885414</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0450913802128896</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.04859635052396185</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.002249398469224757</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.04683234053818048</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.03032695465713828</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1418,24 @@
       <c r="D29" t="n">
         <v>0.03738818691338774</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.04038548561512407</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05517268720111015</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05765112416107847</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02685262987748406</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.04937620671193424</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.06107601506257543</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1452,24 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1486,24 @@
       <c r="D31" t="n">
         <v>-0.01165234909649359</v>
       </c>
+      <c r="E31" t="n">
+        <v>-0.01644315498884675</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.03072228081082813</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0332272604238608</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.009174078137648025</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.0007918587180141132</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.09421058321723093</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1520,24 @@
       <c r="D32" t="n">
         <v>0.1011601418621604</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.1074669200930392</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1456537900403448</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.15295465206865</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1010480406168038</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1299451686195619</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1138078957711149</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1554,24 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1588,24 @@
       <c r="D34" t="n">
         <v>-0.08552661681127621</v>
       </c>
+      <c r="E34" t="n">
+        <v>-0.08559280787823516</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1058445237226644</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.1101550619291523</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.04217205323579853</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.06159844851013419</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.1223821307668249</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1622,24 @@
       <c r="D35" t="n">
         <v>0.1979746225696334</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.2008193770059471</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.07838046101485589</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1806853544020038</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.227333893397048</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.1546455037538473</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5976715054847638</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1656,24 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1690,24 @@
       <c r="D37" t="n">
         <v>-0.01382580560884164</v>
       </c>
+      <c r="E37" t="n">
+        <v>-0.0164882384192323</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.02107207010980801</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.01796614575796797</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.1597415445601804</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0369411527224016</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.03765811714785336</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1724,24 @@
       <c r="D38" t="n">
         <v>-0.05902283674198731</v>
       </c>
+      <c r="E38" t="n">
+        <v>-0.05440156601798331</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.06764727821011961</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.09337395010239452</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.07664314687115278</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.09230015724076172</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.06878084244957108</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1758,24 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1792,24 @@
       <c r="D40" t="n">
         <v>-0.0742676283015225</v>
       </c>
+      <c r="E40" t="n">
+        <v>-0.07339190901248632</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.08300097166215759</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.08099327061258235</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.05708533647481707</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.05977323591249782</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.04356997819362655</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1094,6 +1826,24 @@
       <c r="D41" t="n">
         <v>-0.1695287947576607</v>
       </c>
+      <c r="E41" t="n">
+        <v>-0.1726177398536336</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1606901036478408</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.08012448950979933</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.09552410410722907</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03787207201881228</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.07739029386332405</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1110,6 +1860,24 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1126,6 +1894,24 @@
       <c r="D43" t="n">
         <v>-0.003441338967597341</v>
       </c>
+      <c r="E43" t="n">
+        <v>-0.007171172076857355</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.05440794989978754</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.1051977412116844</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.009096323065783235</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.09812170051291931</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.04529686777451829</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1142,6 +1928,24 @@
       <c r="D44" t="n">
         <v>-0.012459190835153</v>
       </c>
+      <c r="E44" t="n">
+        <v>-0.01194200346810799</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01734404511910245</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.05815126616964086</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.002669119765863021</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3176473088410413</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01566204430195306</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1158,6 +1962,24 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1174,6 +1996,24 @@
       <c r="D46" t="n">
         <v>-0.006556306263399049</v>
       </c>
+      <c r="E46" t="n">
+        <v>-0.005052967574076142</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0004848572747084547</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.003890001890336334</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.03270371171212696</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.006836849333560033</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.003323986420012759</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1190,6 +2030,24 @@
       <c r="D47" t="n">
         <v>-0.1120264974260007</v>
       </c>
+      <c r="E47" t="n">
+        <v>-0.1120219374205079</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1384534228413016</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.1440535908601441</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.08521426749225111</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.09996026697916782</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.09718510512807267</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1206,6 +2064,24 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1222,6 +2098,24 @@
       <c r="D49" t="n">
         <v>-0.03715333111554098</v>
       </c>
+      <c r="E49" t="n">
+        <v>-0.03820962643809215</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.04908150920204079</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.05118184705876911</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.0180867425745038</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.05473137626822643</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.02472083170636154</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1238,6 +2132,24 @@
       <c r="D50" t="n">
         <v>-0.005271547581434381</v>
       </c>
+      <c r="E50" t="n">
+        <v>-0.007927211350707942</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.01844025638737103</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.02243425204168544</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.0002299264441630605</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.03427695214383372</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.01815969621891958</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1254,6 +2166,24 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1270,6 +2200,24 @@
       <c r="D52" t="n">
         <v>0.02101825573697999</v>
       </c>
+      <c r="E52" t="n">
+        <v>0.01788442879354907</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.01786224067134556</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.06522132698173431</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.06005910073594443</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.03762261744194161</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.03530978394394955</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1286,6 +2234,24 @@
       <c r="D53" t="n">
         <v>0.08322663266635352</v>
       </c>
+      <c r="E53" t="n">
+        <v>0.08510938929434743</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1153193094523104</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1282950904044594</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.06373873749891037</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1054737196866894</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1055835872575411</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1302,6 +2268,24 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1318,6 +2302,24 @@
       <c r="D55" t="n">
         <v>0.0314036011087799</v>
       </c>
+      <c r="E55" t="n">
+        <v>0.02860591811298065</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02770922629187553</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0274798966091359</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02471083958551453</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01283291442337083</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.01401640925007406</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1334,6 +2336,24 @@
       <c r="D56" t="n">
         <v>-0.002645469232983416</v>
       </c>
+      <c r="E56" t="n">
+        <v>-0.007649020336093446</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.02273354170451538</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.02635283155530781</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.04580857831678271</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01427927001315565</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.002577954594046059</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1350,6 +2370,24 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1366,6 +2404,24 @@
       <c r="D58" t="n">
         <v>-0.04188079164838087</v>
       </c>
+      <c r="E58" t="n">
+        <v>-0.04189131654026459</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.05174307681001145</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.05390411095441817</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.03037468363958721</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.05220876167090406</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.03918002106464133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1382,6 +2438,24 @@
       <c r="D59" t="n">
         <v>-0.05150766046762514</v>
       </c>
+      <c r="E59" t="n">
+        <v>-0.05208940103592823</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.06477990131174832</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.06727092494233795</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.02539964665614183</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.05748607105607011</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.04371408861330456</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1398,6 +2472,24 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1414,6 +2506,24 @@
       <c r="D61" t="n">
         <v>-0.007981384067676366</v>
       </c>
+      <c r="E61" t="n">
+        <v>-0.01343903811454679</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.0290134129440317</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.03156223656829617</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.02146116774492839</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.04129871795839817</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.01170513080764274</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1430,6 +2540,24 @@
       <c r="D62" t="n">
         <v>0.00463639675450611</v>
       </c>
+      <c r="E62" t="n">
+        <v>0.002498481654331149</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.001830538372606723</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.00254051890411031</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.003975975479092129</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.008199140111725893</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.008713296611875133</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1446,6 +2574,24 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1462,6 +2608,24 @@
       <c r="D64" t="n">
         <v>-0.03967147379753127</v>
       </c>
+      <c r="E64" t="n">
+        <v>-0.04108349490107523</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.05422642739933626</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.0572700862874775</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.02525103721941192</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.04721129966132255</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.06059767876155448</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1478,6 +2642,24 @@
       <c r="D65" t="n">
         <v>-0.01593029741088927</v>
       </c>
+      <c r="E65" t="n">
+        <v>-0.01667236395513001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.02357845797782082</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.02660403049339711</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.008989547099407075</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.0265991107408069</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.01476988292126045</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1494,6 +2676,24 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1510,6 +2710,24 @@
       <c r="D67" t="n">
         <v>0.01114110705596021</v>
       </c>
+      <c r="E67" t="n">
+        <v>0.01161805547134701</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01467139228051256</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01384071085593327</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.01566378170653753</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.01700382182940034</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.01092940696733758</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1526,6 +2744,24 @@
       <c r="D68" t="n">
         <v>0.01261216744711668</v>
       </c>
+      <c r="E68" t="n">
+        <v>0.009914171417432907</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.001769720671222935</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.01077498987864644</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.00550813994477601</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.002283300254920391</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.01738177712592288</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1542,6 +2778,24 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1558,6 +2812,24 @@
       <c r="D70" t="n">
         <v>-0.1318357570203095</v>
       </c>
+      <c r="E70" t="n">
+        <v>-0.1331817189791339</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.1664863980473178</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.1732255499471491</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.119716079480435</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.1648809266455809</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.1200646779297614</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1574,6 +2846,24 @@
       <c r="D71" t="n">
         <v>-0.04538332475474068</v>
       </c>
+      <c r="E71" t="n">
+        <v>-0.04466103837933404</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.05345470970127689</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.05544297236948296</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.01584656845876824</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.04755985462254211</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.02367139614049411</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1590,6 +2880,24 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1606,6 +2914,24 @@
       <c r="D73" t="n">
         <v>0.05590451441499369</v>
       </c>
+      <c r="E73" t="n">
+        <v>0.05281886315420836</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.05751007234862093</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05859419224831242</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.04398715165302806</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0392568794859269</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0218879245533275</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1622,6 +2948,24 @@
       <c r="D74" t="n">
         <v>-0.07954792254803063</v>
       </c>
+      <c r="E74" t="n">
+        <v>-0.07876284924624559</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.095541821234799</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.0992278665672366</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.05007648860295997</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.07065153580985917</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.0773053106101481</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1638,6 +2982,24 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1654,6 +3016,24 @@
       <c r="D76" t="n">
         <v>-0.06520456809831314</v>
       </c>
+      <c r="E76" t="n">
+        <v>-0.06518532416784581</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.08021499129733213</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.08346753004860365</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.0600949572779032</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.05738700300576876</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.05372766070089049</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1670,6 +3050,24 @@
       <c r="D77" t="n">
         <v>-0.09472620451593564</v>
       </c>
+      <c r="E77" t="n">
+        <v>-0.09532205209946774</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.1192397596948804</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.1248007436143195</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.07571562512797964</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.09553069519184614</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.08923188155056171</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1686,6 +3084,24 @@
       <c r="D78" t="n">
         <v>-0.134449489165387</v>
       </c>
+      <c r="E78" t="n">
+        <v>-0.1314252032211256</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.1485179610472949</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.1475337687037722</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.1002927350945505</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.1292445090238374</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.09967992296988049</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1702,6 +3118,24 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1718,6 +3152,24 @@
       <c r="D80" t="n">
         <v>0.02068380044791176</v>
       </c>
+      <c r="E80" t="n">
+        <v>0.01731578017625189</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01213014810380842</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01043063056926779</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.0004430896164464795</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01644981462831937</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02962034411958081</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1734,6 +3186,24 @@
       <c r="D81" t="n">
         <v>0.09680686355552556</v>
       </c>
+      <c r="E81" t="n">
+        <v>0.09488469324634853</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1084854541585839</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.1092044002358468</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.04040076969275474</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.09119512360538627</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0681926471266692</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1750,6 +3220,24 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1766,6 +3254,24 @@
       <c r="D83" t="n">
         <v>0.03257200315854539</v>
       </c>
+      <c r="E83" t="n">
+        <v>0.03239391462567467</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.05017768759513302</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.06717455721130125</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.03402364091332142</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.04724313546457489</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.036961534972794</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1782,6 +3288,24 @@
       <c r="D84" t="n">
         <v>0.01877846676809758</v>
       </c>
+      <c r="E84" t="n">
+        <v>0.01772395022059383</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01243843447598088</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.003807967391414536</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.02183922613827557</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.003224145864744945</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.007941229063393588</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1798,6 +3322,24 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1814,6 +3356,24 @@
       <c r="D86" t="n">
         <v>-0.05500176049687494</v>
       </c>
+      <c r="E86" t="n">
+        <v>-0.05625325939332262</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.05899861698087609</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.04259341984303383</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.004603073594200119</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.03944503758288968</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.0398132900677044</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1830,6 +3390,24 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1846,6 +3424,24 @@
       <c r="D88" t="n">
         <v>0.03790125468608346</v>
       </c>
+      <c r="E88" t="n">
+        <v>0.03739314564477866</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.036510525829984</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02323127160655629</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.00690159511446157</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01311685982867737</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01807029173723236</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1862,6 +3458,24 @@
       <c r="D89" t="n">
         <v>-0.3552503765247156</v>
       </c>
+      <c r="E89" t="n">
+        <v>-0.3548328064184513</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.3437887918424563</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.2164899961198034</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.2829037801926129</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.1785747246338373</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.1399376409024526</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1878,6 +3492,24 @@
       <c r="D90" t="n">
         <v>0.1417998205554805</v>
       </c>
+      <c r="E90" t="n">
+        <v>0.1389092583605597</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1331945767126127</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.09223915366017842</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.1461980430828587</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.07785668159097983</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.06077494891022034</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1894,6 +3526,24 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1910,6 +3560,24 @@
       <c r="D92" t="n">
         <v>0.06556480009081922</v>
       </c>
+      <c r="E92" t="n">
+        <v>0.06234874821604302</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.06533776611360366</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.06313784288169988</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.06510880435767991</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0479898581396256</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.04320816412852197</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1926,6 +3594,24 @@
       <c r="D93" t="n">
         <v>-0.01247312349943482</v>
       </c>
+      <c r="E93" t="n">
+        <v>-0.01681316895132647</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.03814925744213037</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.04922564649453998</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.03881170820862728</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.02597810815015299</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.03373869923753676</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1942,6 +3628,24 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1958,6 +3662,24 @@
       <c r="D95" t="n">
         <v>0.07761982600425488</v>
       </c>
+      <c r="E95" t="n">
+        <v>0.07795167040191649</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.09860745664186574</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.1043697843939114</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.05676206667052987</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.09327154265141221</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.06933851170042266</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1974,6 +3696,24 @@
       <c r="D96" t="n">
         <v>-0.148845685049798</v>
       </c>
+      <c r="E96" t="n">
+        <v>-0.1437617707158037</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.157020240821349</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.1544445544352906</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.1130537096656663</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.1122007164982576</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.09931964086561143</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1990,6 +3730,24 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2006,6 +3764,24 @@
       <c r="D98" t="n">
         <v>0.09953745050863758</v>
       </c>
+      <c r="E98" t="n">
+        <v>0.09870549939068426</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1146276278548491</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.1142421259974523</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.08055451234305722</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.08483016689025973</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.06962567164093986</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2022,6 +3798,24 @@
       <c r="D99" t="n">
         <v>-0.04453199612325775</v>
       </c>
+      <c r="E99" t="n">
+        <v>-0.04961042897433498</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.0179276954615403</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.07016566002875665</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.02622897899622519</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.05759227083716046</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0464142907301479</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2038,6 +3832,24 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2054,6 +3866,24 @@
       <c r="D101" t="n">
         <v>0.007693843397419636</v>
       </c>
+      <c r="E101" t="n">
+        <v>0.01153678478625915</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.009423587243026445</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.06857082305787023</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.003696051413993645</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.05249823536787787</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.04752167665754173</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2070,6 +3900,24 @@
       <c r="D102" t="n">
         <v>0.1038501904697409</v>
       </c>
+      <c r="E102" t="n">
+        <v>0.1027254532582438</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.110846782783793</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.09802376269868793</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.07223954410949748</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.08236894773957079</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.08517760226858215</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2086,6 +3934,24 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2102,6 +3968,24 @@
       <c r="D104" t="n">
         <v>0.06355434068447188</v>
       </c>
+      <c r="E104" t="n">
+        <v>0.06767080045772922</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.03284015989703772</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.06210174077047707</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.07153728862420103</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.04193446415683615</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.04340463034142018</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2118,6 +4002,24 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2134,6 +4036,24 @@
       <c r="D106" t="n">
         <v>0.05131744353761176</v>
       </c>
+      <c r="E106" t="n">
+        <v>0.0473590185325817</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.03859263275375705</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.02714576730235478</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.05129623691395414</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.01999798043817499</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0123504788348601</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2150,6 +4070,24 @@
       <c r="D107" t="n">
         <v>0.3049391320230183</v>
       </c>
+      <c r="E107" t="n">
+        <v>0.2961359074519472</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.3181094259780816</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.3019815798102737</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.2566439757910335</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.2677134871789809</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.2087298299171625</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2166,6 +4104,24 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2182,6 +4138,24 @@
       <c r="D109" t="n">
         <v>-0.1542275314050083</v>
       </c>
+      <c r="E109" t="n">
+        <v>-0.1512615406945791</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.1794956680019028</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.1867706329773415</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.148549794272371</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.167619067232297</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.1462027322877063</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2198,6 +4172,24 @@
       <c r="D110" t="n">
         <v>0.006340539891999785</v>
       </c>
+      <c r="E110" t="n">
+        <v>0.006478214541465552</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.006963980780080435</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.005040617428338215</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.01927777730052621</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.01497981510652047</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.009144945833498445</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2214,6 +4206,24 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2230,6 +4240,24 @@
       <c r="D112" t="n">
         <v>0.003997595565640973</v>
       </c>
+      <c r="E112" t="n">
+        <v>0.001709854910269748</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.00237994633423921</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.0013441543042638</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.01807167421956667</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.004429932493739248</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.01188492308880582</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2246,6 +4274,24 @@
       <c r="D113" t="n">
         <v>0.168819152855076</v>
       </c>
+      <c r="E113" t="n">
+        <v>0.167491621151249</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1431652159838773</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.05625249532183488</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.09723428583127113</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.4207983104580847</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.01999242266938057</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2262,6 +4308,24 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2278,6 +4342,24 @@
       <c r="D115" t="n">
         <v>-0.03694702536948696</v>
       </c>
+      <c r="E115" t="n">
+        <v>-0.03336537862385741</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.02408002604597749</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.01519425152847971</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.0305923722783378</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0749125173615844</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.008763181482759671</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2294,6 +4376,24 @@
       <c r="D116" t="n">
         <v>-0.1076488052837337</v>
       </c>
+      <c r="E116" t="n">
+        <v>-0.09944388277503353</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.1068468717325971</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.1152057933626735</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.1248093754140645</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.1011215087213803</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.06265339666811041</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2310,6 +4410,24 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2326,6 +4444,24 @@
       <c r="D118" t="n">
         <v>-0.06698067103590616</v>
       </c>
+      <c r="E118" t="n">
+        <v>-0.06354757156659249</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.06579040865518644</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.06420413523913743</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.05228427348569695</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.1761439422991997</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.06669560298884604</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2342,6 +4478,24 @@
       <c r="D119" t="n">
         <v>0.04323857814762238</v>
       </c>
+      <c r="E119" t="n">
+        <v>0.0451305539836851</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.008895830432676275</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.1116850499590684</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.02057904866798116</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.08639873375223232</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.07643497202716677</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2358,6 +4512,24 @@
       <c r="D120" t="n">
         <v>-0.02409636499991823</v>
       </c>
+      <c r="E120" t="n">
+        <v>-0.0295194192858432</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.009525794439752447</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.09828193150405222</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.02344386956837703</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.09322920019963525</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.07206471500514405</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2374,6 +4546,24 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2390,6 +4580,24 @@
       <c r="D122" t="n">
         <v>-0.2403061743092235</v>
       </c>
+      <c r="E122" t="n">
+        <v>-0.2311975645589927</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.2512221730461495</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.2488376673950088</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.1603337606339966</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.2101553151357598</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.2489001078002646</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2406,6 +4614,24 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2422,6 +4648,24 @@
       <c r="D124" t="n">
         <v>-0.01737738186110625</v>
       </c>
+      <c r="E124" t="n">
+        <v>-0.0290010736629259</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.02671631499628873</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.1954752131960308</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.05639468334250808</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.154470755564763</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.1852820417247601</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2438,6 +4682,24 @@
       <c r="D125" t="n">
         <v>-0.03660064860204094</v>
       </c>
+      <c r="E125" t="n">
+        <v>-0.03523999921416253</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.04131896292557537</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.04619139685011288</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.01833335049339294</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.04415078002220191</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.04226637928550024</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2454,6 +4716,24 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2470,6 +4750,24 @@
       <c r="D127" t="n">
         <v>0.02911006717347055</v>
       </c>
+      <c r="E127" t="n">
+        <v>0.02893391530349634</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.03403961020700152</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.03437200420915872</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.01419018214176607</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.03575620813734354</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.01618623109198301</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2486,6 +4784,24 @@
       <c r="D128" t="n">
         <v>0.05059169983913803</v>
       </c>
+      <c r="E128" t="n">
+        <v>0.04976124875302426</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.06551833922315838</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.07413044894145586</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.06320414040535662</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.06036405782905812</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02717774376406886</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2502,6 +4818,24 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2518,6 +4852,24 @@
       <c r="D130" t="n">
         <v>-0.08805836506602226</v>
       </c>
+      <c r="E130" t="n">
+        <v>-0.08377180372448341</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.09229066414834525</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.09431334492979834</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.04108380005806012</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.05097732475422513</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.03439407455543912</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2534,6 +4886,24 @@
       <c r="D131" t="n">
         <v>0.1370515188088574</v>
       </c>
+      <c r="E131" t="n">
+        <v>0.1355632545341028</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1560546119978255</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.1552194178992941</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.1161356985004185</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.1250407700265111</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1441509657772704</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2550,6 +4920,24 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2566,6 +4954,24 @@
       <c r="D133" t="n">
         <v>-0.09569820065733683</v>
       </c>
+      <c r="E133" t="n">
+        <v>-0.09940247238308843</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.1298171324365456</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.135731138828933</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.04238885402748652</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.0840890610809857</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.03702548969806174</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2582,6 +4988,24 @@
       <c r="D134" t="n">
         <v>-0.07061508870033135</v>
       </c>
+      <c r="E134" t="n">
+        <v>-0.06600360227974675</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.06828289400911</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.06850444939201816</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-0.05616226352994459</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.06537513747771824</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.02239805313025712</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2598,6 +5022,24 @@
       <c r="D135" t="n">
         <v>-0.01757029736867189</v>
       </c>
+      <c r="E135" t="n">
+        <v>-0.01605693716646089</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.01706938583962775</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.01756191864194089</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-0.01142137844320464</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.01437945942195126</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.01676788269144687</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2614,6 +5056,24 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2630,6 +5090,24 @@
       <c r="D137" t="n">
         <v>-0.02195831976627274</v>
       </c>
+      <c r="E137" t="n">
+        <v>-0.02229456596406583</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.02770084634888035</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.02867069993306633</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-0.0195212539426427</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.01917621383005344</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.005304426361721626</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2646,6 +5124,24 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2662,6 +5158,24 @@
       <c r="D139" t="n">
         <v>0.1054417919958977</v>
       </c>
+      <c r="E139" t="n">
+        <v>0.1009790066592934</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.09682441175844192</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0774840433973969</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.06898580819961606</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.05322308385487838</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03269446774479239</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2678,6 +5192,24 @@
       <c r="D140" t="n">
         <v>-0.03702336815143896</v>
       </c>
+      <c r="E140" t="n">
+        <v>-0.03811260204045637</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.05929219535282065</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.07375286338021901</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-0.0161515994766333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.04414194305361228</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.04932800320308424</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2694,6 +5226,24 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2710,6 +5260,24 @@
       <c r="D142" t="n">
         <v>0.0410830300276744</v>
       </c>
+      <c r="E142" t="n">
+        <v>0.03953737016324572</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.04017952854349156</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.03594281187627179</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.01564349973724684</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.02899969949225824</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03355498716824344</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2726,6 +5294,24 @@
       <c r="D143" t="n">
         <v>0.0433669417118935</v>
       </c>
+      <c r="E143" t="n">
+        <v>0.03686617372049067</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.01723553329977693</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.001935518547933457</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.01966504569827617</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.004046159731758737</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.03334953893008286</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2742,6 +5328,24 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2758,6 +5362,24 @@
       <c r="D145" t="n">
         <v>-0.02570519804384117</v>
       </c>
+      <c r="E145" t="n">
+        <v>-0.02641353076731933</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.03456812527083435</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.03703949611227109</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0008336509541608877</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.03979039190042896</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.02361102568440836</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2774,6 +5396,24 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2790,6 +5430,24 @@
       <c r="D147" t="n">
         <v>-0.06971367405963706</v>
       </c>
+      <c r="E147" t="n">
+        <v>-0.06749099892838784</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.0772721014819924</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.07974936996993773</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-0.06194175577549079</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.06521515545819248</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.06317374360418961</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2806,6 +5464,24 @@
       <c r="D148" t="n">
         <v>-0.08282478118088982</v>
       </c>
+      <c r="E148" t="n">
+        <v>-0.07699912198383935</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.09496776251843533</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.125868705910069</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.06590575104112363</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.1157417853205354</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.1021035597525493</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2822,6 +5498,24 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2838,6 +5532,24 @@
       <c r="D150" t="n">
         <v>0.04536327276655461</v>
       </c>
+      <c r="E150" t="n">
+        <v>0.04472776404346595</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.08190053558868188</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1246952411753877</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.05717978959850561</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.09720821937101999</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.08574587379007487</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2854,6 +5566,24 @@
       <c r="D151" t="n">
         <v>0.1027992752205603</v>
       </c>
+      <c r="E151" t="n">
+        <v>0.1035661257765958</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.04115287526870821</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-0.08533824478806282</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.08425264148219182</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.07122377823324491</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.03097874406246805</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2870,6 +5600,24 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2886,6 +5634,24 @@
       <c r="D153" t="n">
         <v>-0.07080232891428945</v>
       </c>
+      <c r="E153" t="n">
+        <v>-0.06936734596779483</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.0526495855917121</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-0.01424788813114068</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.09967547623435773</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.009073553494940991</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-0.03718121367289556</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2902,6 +5668,24 @@
       <c r="D154" t="n">
         <v>0.08209462780080774</v>
       </c>
+      <c r="E154" t="n">
+        <v>0.07763922380550399</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.07957783210226621</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.07795344700843673</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.03659018441354402</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.08126916614233844</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04688590607546369</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2918,6 +5702,24 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2934,6 +5736,24 @@
       <c r="D156" t="n">
         <v>0.08958121473753516</v>
       </c>
+      <c r="E156" t="n">
+        <v>0.08641841852487742</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0899675063426169</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.08313521427530621</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.02097387794530613</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.03284186613493972</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01553204786615045</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2950,6 +5770,24 @@
       <c r="D157" t="n">
         <v>0.05108910311387121</v>
       </c>
+      <c r="E157" t="n">
+        <v>0.05047128437344787</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0570030834690876</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.05628872787100055</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.06791237675516157</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.0216965097970668</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03166078109604317</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2966,6 +5804,24 @@
       <c r="D158" t="n">
         <v>0</v>
       </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2982,6 +5838,24 @@
       <c r="D159" t="n">
         <v>0.007761641489443435</v>
       </c>
+      <c r="E159" t="n">
+        <v>0.006765563895265995</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.01780061204130075</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.03353048003796712</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-0.03612780013659486</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.03451867343707554</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.01272699193212898</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2998,6 +5872,24 @@
       <c r="D160" t="n">
         <v>0.02031501695160725</v>
       </c>
+      <c r="E160" t="n">
+        <v>0.01862633310352688</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.000927997425116371</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.02238621647941909</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.01288980314417886</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.0233827717090221</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.03372415267393158</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3014,6 +5906,24 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3030,6 +5940,24 @@
       <c r="D162" t="n">
         <v>-0.01403395611853238</v>
       </c>
+      <c r="E162" t="n">
+        <v>-0.01332967436231418</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.01519659438530687</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-0.01602634882214583</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-0.01042342875565085</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.003260611523459706</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.01540988358755</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3046,6 +5974,24 @@
       <c r="D163" t="n">
         <v>-0.1044944175792812</v>
       </c>
+      <c r="E163" t="n">
+        <v>-0.1007934515893107</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.0676771262821152</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.003057958128279031</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-0.04205516108309704</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.005805334194338117</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.006881402200873946</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3062,6 +6008,24 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3078,6 +6042,24 @@
       <c r="D165" t="n">
         <v>-0.0262316370284955</v>
       </c>
+      <c r="E165" t="n">
+        <v>-0.02792901270683164</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.04373666347661785</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.05188853097610167</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-0.01214356193196988</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.03703959507782757</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.03886463437763291</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3094,6 +6076,24 @@
       <c r="D166" t="n">
         <v>-0.01068472597158492</v>
       </c>
+      <c r="E166" t="n">
+        <v>-0.009012876457065782</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.04323372395874336</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.09726144388695925</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-0.001136064390327213</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.08172015084309714</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.05519373183664416</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3110,6 +6110,24 @@
       <c r="D167" t="n">
         <v>0.08473704362575359</v>
       </c>
+      <c r="E167" t="n">
+        <v>0.08161005294328304</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.09849037766773643</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.1112042540540697</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.04654659364162505</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.06870366596020357</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.07097258188260136</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3126,6 +6144,24 @@
       <c r="D168" t="n">
         <v>0</v>
       </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3142,6 +6178,24 @@
       <c r="D169" t="n">
         <v>0.0114750685663654</v>
       </c>
+      <c r="E169" t="n">
+        <v>0.009023905294734456</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.0017539458248313</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.01001183207978343</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.02364236715636678</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.01879406840499464</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.0191536028745182</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3158,6 +6212,24 @@
       <c r="D170" t="n">
         <v>0</v>
       </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3174,6 +6246,24 @@
       <c r="D171" t="n">
         <v>0.04253623307858142</v>
       </c>
+      <c r="E171" t="n">
+        <v>0.03851030974897246</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.03161549928458895</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.02489707723440141</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.07658406596386404</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.02202622707609657</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.003304437360709679</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3190,6 +6280,24 @@
       <c r="D172" t="n">
         <v>-0.04260541548254227</v>
       </c>
+      <c r="E172" t="n">
+        <v>-0.04455287271945124</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.04137962710702147</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-0.01925355951496126</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0897475247036212</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.01659848441786482</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0.005049777693434268</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3206,6 +6314,24 @@
       <c r="D173" t="n">
         <v>0</v>
       </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3222,6 +6348,24 @@
       <c r="D174" t="n">
         <v>-0.2261565505069829</v>
       </c>
+      <c r="E174" t="n">
+        <v>-0.2182394285149362</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.2578647941004594</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.2916858844845172</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-0.1184927154944561</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.2378896338605671</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.1618122027473189</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3238,6 +6382,24 @@
       <c r="D175" t="n">
         <v>-0.06550947048269959</v>
       </c>
+      <c r="E175" t="n">
+        <v>-0.06740988447707318</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.09109915404352836</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.1001204916110724</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.004674978799685874</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.08538977934587562</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.08111425455411954</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3254,6 +6416,24 @@
       <c r="D176" t="n">
         <v>0</v>
       </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3270,6 +6450,24 @@
       <c r="D177" t="n">
         <v>-0.08031020284871659</v>
       </c>
+      <c r="E177" t="n">
+        <v>-0.07693190196340717</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.08187190422275518</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-0.07912450445762061</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-0.06807215510828986</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.08000015900588761</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.05369659089134282</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3286,6 +6484,24 @@
       <c r="D178" t="n">
         <v>0.01142503572644631</v>
       </c>
+      <c r="E178" t="n">
+        <v>0.01238946339929156</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.01757615823193631</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.01887138679543272</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.0151013887232244</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.009377738027861283</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.007717301364331367</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3302,6 +6518,24 @@
       <c r="D179" t="n">
         <v>-0.04438352346176533</v>
       </c>
+      <c r="E179" t="n">
+        <v>-0.04416976626810691</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.05243861101315821</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-0.05308841878927779</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.005589236643906593</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.05159266922337945</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.007084256354789999</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3318,6 +6552,24 @@
       <c r="D180" t="n">
         <v>0</v>
       </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3334,6 +6586,24 @@
       <c r="D181" t="n">
         <v>0.0546480726304591</v>
       </c>
+      <c r="E181" t="n">
+        <v>0.05298185867801104</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.07868474841732222</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.1083979135419735</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.007147217045280546</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.1022131915018003</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.07748342888182295</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3350,6 +6620,24 @@
       <c r="D182" t="n">
         <v>-0.1900603666261529</v>
       </c>
+      <c r="E182" t="n">
+        <v>-0.1896705541903195</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.1477885747452845</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.03013768628898366</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-0.2023806974332423</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.006529798673365916</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.001720540925671962</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3366,6 +6654,24 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3382,6 +6688,24 @@
       <c r="D184" t="n">
         <v>0.3398578036313004</v>
       </c>
+      <c r="E184" t="n">
+        <v>0.346739702391401</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.3431974585355664</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.2000265555329034</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.2425317779400495</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.1809847431856525</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.1105852873094671</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3398,6 +6722,24 @@
       <c r="D185" t="n">
         <v>0</v>
       </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3414,6 +6756,24 @@
       <c r="D186" t="n">
         <v>0.01735547321429955</v>
       </c>
+      <c r="E186" t="n">
+        <v>0.01457713335030956</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.001354444132088329</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.01237280642375015</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.005176405738752789</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.02089890345198562</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.002950871901680759</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3430,6 +6790,24 @@
       <c r="D187" t="n">
         <v>0.1123847333046842</v>
       </c>
+      <c r="E187" t="n">
+        <v>0.1103789841422183</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.09005347844816208</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.03742913523617557</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.09745050734720072</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.03625569995947599</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03251733189692015</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3446,6 +6824,24 @@
       <c r="D188" t="n">
         <v>0</v>
       </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3462,6 +6858,24 @@
       <c r="D189" t="n">
         <v>-0.02786557018536153</v>
       </c>
+      <c r="E189" t="n">
+        <v>-0.02944815269144886</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.02665970826923175</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.009899409903480859</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.01596607606863566</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.008008230398750893</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.0006827676185767023</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3478,6 +6892,24 @@
       <c r="D190" t="n">
         <v>-0.07745624649773741</v>
       </c>
+      <c r="E190" t="n">
+        <v>-0.07762004849632362</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.07933302654866155</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-0.06052414007508618</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.008690787114665291</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.04710401540394798</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0.04755121839355352</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3494,6 +6926,24 @@
       <c r="D191" t="n">
         <v>0.3250010768802952</v>
       </c>
+      <c r="E191" t="n">
+        <v>0.3131930223673087</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.3248618224184261</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.2943358671261226</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.1647692973319081</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.2657966335988224</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.181442362190618</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3510,6 +6960,24 @@
       <c r="D192" t="n">
         <v>0</v>
       </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3526,6 +6994,24 @@
       <c r="D193" t="n">
         <v>0.1431277860421048</v>
       </c>
+      <c r="E193" t="n">
+        <v>0.1423205686171217</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1810585963450141</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.1983358297802721</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.07338245510126171</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.171646575818324</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.08659354972748529</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3542,6 +7028,24 @@
       <c r="D194" t="n">
         <v>0</v>
       </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3558,6 +7062,24 @@
       <c r="D195" t="n">
         <v>-0.1802405496539254</v>
       </c>
+      <c r="E195" t="n">
+        <v>-0.1761979343329237</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.1866782970756765</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-0.167543096385967</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-0.08738324423186601</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.1446262148135622</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.1239046031800056</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3574,6 +7096,24 @@
       <c r="D196" t="n">
         <v>-0.07036876587681969</v>
       </c>
+      <c r="E196" t="n">
+        <v>-0.06912902424987998</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.08477276869454786</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-0.0872359112574031</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-0.06243542546596713</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.07219008957452801</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.04825901936016408</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3590,6 +7130,24 @@
       <c r="D197" t="n">
         <v>0</v>
       </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3606,6 +7164,24 @@
       <c r="D198" t="n">
         <v>0.03447652421979106</v>
       </c>
+      <c r="E198" t="n">
+        <v>0.03096601572062514</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.02222356846593114</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.0127557945698958</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-0.006968894236494185</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.01057105922436128</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01207408357969073</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3622,6 +7198,24 @@
       <c r="D199" t="n">
         <v>-0.07479144239230454</v>
       </c>
+      <c r="E199" t="n">
+        <v>-0.06553117617792951</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.05176796691329855</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-0.04737186478941926</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-0.07679766457319474</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.03468172890516141</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.03012724543856641</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3638,6 +7232,24 @@
       <c r="D200" t="n">
         <v>0</v>
       </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3654,6 +7266,24 @@
       <c r="D201" t="n">
         <v>-0.08148666118214434</v>
       </c>
+      <c r="E201" t="n">
+        <v>-0.06981790367214126</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.04270670395052442</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-0.02517931749295668</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-0.07013642015779013</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.02041503107966569</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.03091432966546896</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3670,6 +7300,24 @@
       <c r="D202" t="n">
         <v>-0.04532918971388542</v>
       </c>
+      <c r="E202" t="n">
+        <v>-0.04321854280106781</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.05697311035246948</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-0.06685073764918782</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-0.03660506227429276</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-0.04919513958745331</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.07140832360331528</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3686,6 +7334,24 @@
       <c r="D203" t="n">
         <v>0.05005005111291098</v>
       </c>
+      <c r="E203" t="n">
+        <v>0.05131315272262298</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.06509575234437141</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.06725797506598415</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.04287342868532909</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.05527202318584645</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.00997722381987267</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3702,6 +7368,24 @@
       <c r="D204" t="n">
         <v>0</v>
       </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3718,6 +7402,24 @@
       <c r="D205" t="n">
         <v>-0.06904192035186275</v>
       </c>
+      <c r="E205" t="n">
+        <v>-0.06891166883448799</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.07411332521779287</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-0.06506055527059396</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-0.0762510167934829</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0.05001957260518183</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0.05214155634958868</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3734,6 +7436,24 @@
       <c r="D206" t="n">
         <v>0</v>
       </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3750,6 +7470,24 @@
       <c r="D207" t="n">
         <v>0.09940695173856934</v>
       </c>
+      <c r="E207" t="n">
+        <v>0.09762198624258719</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.1204781235489439</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.1290542045805719</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.04968090355841506</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.08998703193067265</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.01726381885905897</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3766,6 +7504,24 @@
       <c r="D208" t="n">
         <v>-0.02278035037787815</v>
       </c>
+      <c r="E208" t="n">
+        <v>-0.01820320015841879</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.006255896288903526</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-0.000973138638504586</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.001162145645793031</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.002326145044359825</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01415529243453149</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3782,6 +7538,24 @@
       <c r="D209" t="n">
         <v>0</v>
       </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3798,6 +7572,24 @@
       <c r="D210" t="n">
         <v>-0.04780814306882985</v>
       </c>
+      <c r="E210" t="n">
+        <v>-0.04170605853042518</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-0.03270155649375502</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-0.02843876629694891</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-0.003944402820149932</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-0.0185117614895706</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.0223512664373228</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3812,6 +7604,24 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
         <v>0</v>
       </c>
     </row>
